--- a/8Bus_Mesh_v1.xlsx
+++ b/8Bus_Mesh_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D136A0-212E-4C76-8600-5E1483593398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A326BE3F-5F8D-456F-9832-C9AD70472302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2856,7 +2856,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
